--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -806,17 +806,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Rockwell"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Rockwell"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1662,7 +1662,7 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K27" sqref="K27:K49"/>
     </sheetView>
   </sheetViews>

--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -787,21 +787,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Rockwell"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Rockwell"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Rockwell"/>
       <charset val="134"/>
     </font>
@@ -812,6 +805,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>

--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -787,6 +787,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Rockwell"/>
@@ -805,13 +812,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K49"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="49">
   <si>
     <t>NIM</t>
   </si>
@@ -571,6 +571,21 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>RINA SETIAWATI</t>
+  </si>
+  <si>
+    <t>ANDI WIDYAWAN</t>
+  </si>
+  <si>
+    <t>DINA SARI</t>
+  </si>
+  <si>
+    <t>HENDRA ANWAR</t>
+  </si>
+  <si>
+    <t>SANDRA PUTRI</t>
   </si>
 </sst>
 </file>
@@ -782,20 +797,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Rockwell"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Rockwell"/>
       <charset val="134"/>
     </font>
@@ -812,6 +820,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1306,7 +1321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,6 +1349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1706,13 +1724,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1741,13 +1759,13 @@
       <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="9"/>
@@ -1957,13 +1975,13 @@
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="9"/>
@@ -2173,13 +2191,13 @@
       <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="9"/>
@@ -2389,13 +2407,13 @@
       <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="9"/>
@@ -2605,13 +2623,13 @@
       <c r="H26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="11" t="s">
+      <c r="I26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2640,13 +2658,13 @@
       <c r="H27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="11" t="s">
+      <c r="I27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2675,13 +2693,13 @@
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="11" t="s">
+      <c r="I28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2710,13 +2728,13 @@
       <c r="H29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="11" t="s">
+      <c r="I29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2745,13 +2763,13 @@
       <c r="H30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="11" t="s">
+      <c r="I30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2780,13 +2798,13 @@
       <c r="H31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="11" t="s">
+      <c r="I31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2815,13 +2833,13 @@
       <c r="H32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="11" t="s">
+      <c r="I32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2850,13 +2868,13 @@
       <c r="H33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="11" t="s">
+      <c r="I33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2885,13 +2903,13 @@
       <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="11" t="s">
+      <c r="I34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2920,13 +2938,13 @@
       <c r="H35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="11" t="s">
+      <c r="I35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2955,13 +2973,13 @@
       <c r="H36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="11" t="s">
+      <c r="I36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2990,13 +3008,13 @@
       <c r="H37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="11" t="s">
+      <c r="I37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3025,13 +3043,13 @@
       <c r="H38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="11" t="s">
+      <c r="I38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3060,13 +3078,13 @@
       <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="11" t="s">
+      <c r="I39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3095,13 +3113,13 @@
       <c r="H40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="11" t="s">
+      <c r="I40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3130,13 +3148,13 @@
       <c r="H41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="11" t="s">
+      <c r="I41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3165,13 +3183,13 @@
       <c r="H42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="I42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3200,13 +3218,13 @@
       <c r="H43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="11" t="s">
+      <c r="I43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3235,13 +3253,13 @@
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="11" t="s">
+      <c r="I44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3270,13 +3288,13 @@
       <c r="H45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="11" t="s">
+      <c r="I45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3305,13 +3323,13 @@
       <c r="H46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="11" t="s">
+      <c r="I46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3340,13 +3358,13 @@
       <c r="H47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="11" t="s">
+      <c r="I47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3375,13 +3393,13 @@
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="11" t="s">
+      <c r="I48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3410,13 +3428,2113 @@
       <c r="H49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="11" t="s">
+      <c r="I49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="9">
+        <v>3</v>
+      </c>
+      <c r="K51" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="9">
+        <v>2</v>
+      </c>
+      <c r="K52" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="9">
+        <v>4</v>
+      </c>
+      <c r="K55" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10">
+        <v>9999999994</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="9">
+        <v>3</v>
+      </c>
+      <c r="K63" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="9">
+        <v>2</v>
+      </c>
+      <c r="K64" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9">
+        <v>4</v>
+      </c>
+      <c r="K67" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="10">
+        <v>9999999995</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="9">
+        <v>3</v>
+      </c>
+      <c r="K75" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="9">
+        <v>2</v>
+      </c>
+      <c r="K76" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="9">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="9">
+        <v>4</v>
+      </c>
+      <c r="K79" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10">
+        <v>9999999996</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="9">
+        <v>3</v>
+      </c>
+      <c r="K87" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="9">
+        <v>2</v>
+      </c>
+      <c r="K88" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="9">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="9">
+        <v>4</v>
+      </c>
+      <c r="K91" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="10">
+        <v>9999999997</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="9">
+        <v>3</v>
+      </c>
+      <c r="K99" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="9">
+        <v>2</v>
+      </c>
+      <c r="K100" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" s="9">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" s="9">
+        <v>0</v>
+      </c>
+      <c r="K102" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="9">
+        <v>4</v>
+      </c>
+      <c r="K103" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="10">
+        <v>9999999998</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>43</v>
       </c>
     </row>

--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="66">
   <si>
     <t>NIM</t>
   </si>
@@ -371,7 +371,7 @@
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Nama Kelas</t>
+    <t>NIDN</t>
   </si>
   <si>
     <t>Kode Prodi</t>
@@ -392,9 +392,6 @@
     <t>Statistika</t>
   </si>
   <si>
-    <t>statis_ak</t>
-  </si>
-  <si>
     <t>AK-001</t>
   </si>
   <si>
@@ -407,16 +404,10 @@
     <t>Pemrograman Web</t>
   </si>
   <si>
-    <t>proweb_ak</t>
-  </si>
-  <si>
     <t>BASDAT_AK</t>
   </si>
   <si>
     <t>Basis Data</t>
-  </si>
-  <si>
-    <t>basdat_ak</t>
   </si>
   <si>
     <t>MOBILE_AK</t>
@@ -425,25 +416,16 @@
     <t>Mobile Programming</t>
   </si>
   <si>
-    <t>mobile_ak</t>
-  </si>
-  <si>
     <t>SISTOP_AK</t>
   </si>
   <si>
     <t>Sistem Operasi</t>
   </si>
   <si>
-    <t>sistop_ak</t>
-  </si>
-  <si>
     <t>ERPEEL_AK</t>
   </si>
   <si>
     <t>RPL</t>
-  </si>
-  <si>
-    <t>erpeel_ak</t>
   </si>
   <si>
     <t>20221</t>
@@ -467,40 +449,22 @@
     <t>STATIS_MO</t>
   </si>
   <si>
-    <t>statis_mo</t>
-  </si>
-  <si>
     <t>MO-002</t>
   </si>
   <si>
     <t>PROWEB_MO</t>
   </si>
   <si>
-    <t>proweb_mo</t>
-  </si>
-  <si>
     <t>BASDAT_MO</t>
-  </si>
-  <si>
-    <t>basdat_mo</t>
   </si>
   <si>
     <t>MOBILE_MO</t>
   </si>
   <si>
-    <t>mobile_mo</t>
-  </si>
-  <si>
     <t>SISTOP_MO</t>
   </si>
   <si>
-    <t>sistop_mo</t>
-  </si>
-  <si>
     <t>ERPEEL_MO</t>
-  </si>
-  <si>
-    <t>erpeel_mo</t>
   </si>
   <si>
     <t>DINA SARI</t>
@@ -524,40 +488,22 @@
     <t>STATIS_TE</t>
   </si>
   <si>
-    <t>statis_te</t>
-  </si>
-  <si>
     <t>TE-003</t>
   </si>
   <si>
     <t>PROWEB_TE</t>
   </si>
   <si>
-    <t>proweb_te</t>
-  </si>
-  <si>
     <t>BASDAT_TE</t>
-  </si>
-  <si>
-    <t>basdat_te</t>
   </si>
   <si>
     <t>MOBILE_TE</t>
   </si>
   <si>
-    <t>mobile_te</t>
-  </si>
-  <si>
     <t>SISTOP_TE</t>
   </si>
   <si>
-    <t>sistop_te</t>
-  </si>
-  <si>
     <t>ERPEEL_TE</t>
-  </si>
-  <si>
-    <t>erpeel_te</t>
   </si>
   <si>
     <t>SITI 234</t>
@@ -578,40 +524,22 @@
     <t>STATIS_MSDM</t>
   </si>
   <si>
-    <t>statis_msdm</t>
-  </si>
-  <si>
     <t>MSDM-004</t>
   </si>
   <si>
     <t>PROWEB_MSDM</t>
   </si>
   <si>
-    <t>proweb_msdm</t>
-  </si>
-  <si>
     <t>BASDAT_MSDM</t>
-  </si>
-  <si>
-    <t>basdat_msdm</t>
   </si>
   <si>
     <t>MOBILE_MSDM</t>
   </si>
   <si>
-    <t>mobile_msdm</t>
-  </si>
-  <si>
     <t>SISTOP_MSDM</t>
   </si>
   <si>
-    <t>sistop_msdm</t>
-  </si>
-  <si>
     <t>ERPEEL_MSDM</t>
-  </si>
-  <si>
-    <t>erpeel_msdm</t>
   </si>
   <si>
     <t>HENDRA 324</t>
@@ -1716,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:L249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188:F241"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1776,14 +1704,14 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -1800,19 +1728,19 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
+      <c r="F3" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1829,19 +1757,19 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1858,19 +1786,19 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1887,19 +1815,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1916,19 +1844,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1942,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
@@ -1950,14 +1878,14 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1971,22 +1899,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
+      <c r="F9" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2000,22 +1928,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -2029,22 +1957,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -2058,22 +1986,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -2087,22 +2015,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -2113,7 +2041,7 @@
         <v>9999999991</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
@@ -2124,14 +2052,14 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -2142,25 +2070,25 @@
         <v>9999999991</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
+      <c r="F15" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2171,25 +2099,25 @@
         <v>9999999991</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2200,25 +2128,25 @@
         <v>9999999991</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2229,25 +2157,25 @@
         <v>9999999991</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2258,25 +2186,25 @@
         <v>9999999991</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2287,10 +2215,10 @@
         <v>9999999991</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
@@ -2298,14 +2226,14 @@
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -2316,25 +2244,25 @@
         <v>9999999991</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
+      <c r="F21" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2345,25 +2273,25 @@
         <v>9999999991</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2374,25 +2302,25 @@
         <v>9999999991</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2403,25 +2331,25 @@
         <v>9999999991</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2432,25 +2360,25 @@
         <v>9999999991</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2461,7 +2389,7 @@
         <v>9999999992</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
@@ -2472,14 +2400,14 @@
       <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2489,25 +2417,25 @@
         <v>9999999992</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>17</v>
+      <c r="F27" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -2517,25 +2445,25 @@
         <v>9999999992</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2545,25 +2473,25 @@
         <v>9999999992</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -2573,25 +2501,25 @@
         <v>9999999992</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -2601,25 +2529,25 @@
         <v>9999999992</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -2629,10 +2557,10 @@
         <v>9999999992</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>10</v>
@@ -2640,14 +2568,14 @@
       <c r="E32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -2657,25 +2585,25 @@
         <v>9999999992</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>17</v>
+      <c r="F33" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -2685,25 +2613,25 @@
         <v>9999999992</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -2713,25 +2641,25 @@
         <v>9999999992</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -2741,25 +2669,25 @@
         <v>9999999992</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -2769,25 +2697,25 @@
         <v>9999999992</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -2797,7 +2725,7 @@
         <v>9999999993</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
@@ -2808,14 +2736,14 @@
       <c r="E38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -2825,25 +2753,25 @@
         <v>9999999993</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>17</v>
+      <c r="F39" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -2853,25 +2781,25 @@
         <v>9999999993</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -2881,25 +2809,25 @@
         <v>9999999993</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -2909,25 +2837,25 @@
         <v>9999999993</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
@@ -2937,25 +2865,25 @@
         <v>9999999993</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
@@ -2965,10 +2893,10 @@
         <v>9999999993</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>10</v>
@@ -2976,14 +2904,14 @@
       <c r="E44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H44" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
@@ -2993,25 +2921,25 @@
         <v>9999999993</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>17</v>
+      <c r="F45" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -3021,25 +2949,25 @@
         <v>9999999993</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -3049,25 +2977,25 @@
         <v>9999999993</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
@@ -3077,25 +3005,25 @@
         <v>9999999993</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -3105,25 +3033,25 @@
         <v>9999999993</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
@@ -3133,7 +3061,7 @@
         <v>9999999994</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>9</v>
@@ -3144,14 +3072,14 @@
       <c r="E50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -3161,25 +3089,25 @@
         <v>9999999994</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>17</v>
+      <c r="F51" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3189,25 +3117,25 @@
         <v>9999999994</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3217,25 +3145,25 @@
         <v>9999999994</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3245,25 +3173,25 @@
         <v>9999999994</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3273,25 +3201,25 @@
         <v>9999999994</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3301,10 +3229,10 @@
         <v>9999999994</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>10</v>
@@ -3312,14 +3240,14 @@
       <c r="E56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H56" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -3329,25 +3257,25 @@
         <v>9999999994</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>17</v>
+      <c r="F57" s="7">
+        <v>1111111112</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -3357,25 +3285,25 @@
         <v>9999999994</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1111111113</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
@@ -3385,25 +3313,25 @@
         <v>9999999994</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1111111114</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
@@ -3413,25 +3341,25 @@
         <v>9999999994</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1111111115</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
@@ -3441,25 +3369,25 @@
         <v>9999999994</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1111111116</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
@@ -3469,25 +3397,25 @@
         <v>9999999995</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>37</v>
+      <c r="F62" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
@@ -3497,25 +3425,25 @@
         <v>9999999995</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -3525,25 +3453,25 @@
         <v>9999999995</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3553,25 +3481,25 @@
         <v>9999999995</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -3581,25 +3509,25 @@
         <v>9999999995</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -3609,25 +3537,25 @@
         <v>9999999995</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -3637,25 +3565,25 @@
         <v>9999999995</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>37</v>
+      <c r="F68" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
@@ -3665,25 +3593,25 @@
         <v>9999999995</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
@@ -3693,25 +3621,25 @@
         <v>9999999995</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
@@ -3721,25 +3649,25 @@
         <v>9999999995</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
@@ -3749,25 +3677,25 @@
         <v>9999999995</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E72" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
@@ -3777,25 +3705,25 @@
         <v>9999999995</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
@@ -3805,25 +3733,25 @@
         <v>9999999996</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>37</v>
+      <c r="F74" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
@@ -3833,25 +3761,25 @@
         <v>9999999996</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -3861,25 +3789,25 @@
         <v>9999999996</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -3889,25 +3817,25 @@
         <v>9999999996</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -3917,25 +3845,25 @@
         <v>9999999996</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -3945,25 +3873,25 @@
         <v>9999999996</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -3973,25 +3901,25 @@
         <v>9999999996</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>37</v>
+      <c r="F80" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
@@ -4001,25 +3929,25 @@
         <v>9999999996</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -4029,25 +3957,25 @@
         <v>9999999996</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
@@ -4057,25 +3985,25 @@
         <v>9999999996</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
@@ -4085,25 +4013,25 @@
         <v>9999999996</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
@@ -4113,25 +4041,25 @@
         <v>9999999996</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
@@ -4141,25 +4069,25 @@
         <v>9999999997</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>37</v>
+      <c r="F86" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
@@ -4169,25 +4097,25 @@
         <v>9999999997</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -4197,25 +4125,25 @@
         <v>9999999997</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4225,25 +4153,25 @@
         <v>9999999997</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -4253,25 +4181,25 @@
         <v>9999999997</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F90" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -4281,25 +4209,25 @@
         <v>9999999997</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -4309,25 +4237,25 @@
         <v>9999999997</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>37</v>
+      <c r="F92" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
@@ -4337,25 +4265,25 @@
         <v>9999999997</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
@@ -4365,25 +4293,25 @@
         <v>9999999997</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
@@ -4393,25 +4321,25 @@
         <v>9999999997</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F95" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
@@ -4421,25 +4349,25 @@
         <v>9999999997</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
@@ -4449,25 +4377,25 @@
         <v>9999999997</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F97" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
@@ -4477,25 +4405,25 @@
         <v>9999999998</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>37</v>
+      <c r="F98" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
@@ -4505,25 +4433,25 @@
         <v>9999999998</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F99" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -4533,25 +4461,25 @@
         <v>9999999998</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -4561,25 +4489,25 @@
         <v>9999999998</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F101" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -4589,25 +4517,25 @@
         <v>9999999998</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -4617,25 +4545,25 @@
         <v>9999999998</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -4645,25 +4573,25 @@
         <v>9999999998</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>37</v>
+      <c r="F104" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
@@ -4673,25 +4601,25 @@
         <v>9999999998</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F105" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
@@ -4701,25 +4629,25 @@
         <v>9999999998</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
@@ -4729,25 +4657,25 @@
         <v>9999999998</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F107" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
@@ -4757,25 +4685,25 @@
         <v>9999999998</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -4785,339 +4713,339 @@
         <v>9999999998</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>37</v>
+      <c r="F110" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>37</v>
+      <c r="F116" s="7">
+        <v>1111111117</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1111111118</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="F118" s="7">
+        <v>1111111119</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1111111120</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="F120" s="7">
+        <v>1111111121</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1111111122</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5125,25 +5053,25 @@
         <v>9999999911</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>56</v>
+      <c r="F122" s="7">
+        <v>1111111123</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5151,25 +5079,25 @@
         <v>9999999911</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1111111124</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5177,25 +5105,25 @@
         <v>9999999911</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1111111125</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5203,25 +5131,25 @@
         <v>9999999911</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1111111126</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5229,25 +5157,25 @@
         <v>9999999911</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1111111127</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5255,25 +5183,25 @@
         <v>9999999911</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1111111128</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5281,25 +5209,25 @@
         <v>9999999911</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="7" t="s">
-        <v>56</v>
+      <c r="F128" s="7">
+        <v>1111111123</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5307,25 +5235,25 @@
         <v>9999999911</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1111111124</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5333,25 +5261,25 @@
         <v>9999999911</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1111111125</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5359,25 +5287,25 @@
         <v>9999999911</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1111111126</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5385,25 +5313,25 @@
         <v>9999999911</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1111111127</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5411,25 +5339,25 @@
         <v>9999999911</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1111111128</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5437,25 +5365,25 @@
         <v>9999999912</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>56</v>
+      <c r="F134" s="7">
+        <v>1111111123</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5463,25 +5391,25 @@
         <v>9999999912</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1111111124</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5489,25 +5417,25 @@
         <v>9999999912</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1111111125</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5515,25 +5443,25 @@
         <v>9999999912</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1111111126</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5541,25 +5469,25 @@
         <v>9999999912</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F138" s="7">
+        <v>1111111127</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5567,25 +5495,25 @@
         <v>9999999912</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1111111128</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5593,25 +5521,25 @@
         <v>9999999912</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F140" s="7" t="s">
-        <v>56</v>
+      <c r="F140" s="7">
+        <v>1111111123</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5619,25 +5547,25 @@
         <v>9999999912</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1111111124</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5645,25 +5573,25 @@
         <v>9999999912</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1111111125</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5671,25 +5599,25 @@
         <v>9999999912</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1111111126</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5697,25 +5625,25 @@
         <v>9999999912</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1111111127</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5723,25 +5651,25 @@
         <v>9999999912</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1111111128</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5749,25 +5677,25 @@
         <v>9999999913</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="7" t="s">
-        <v>56</v>
+      <c r="F146" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5775,25 +5703,25 @@
         <v>9999999913</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5801,25 +5729,25 @@
         <v>9999999913</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5827,25 +5755,25 @@
         <v>9999999913</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5853,25 +5781,25 @@
         <v>9999999913</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5879,25 +5807,25 @@
         <v>9999999913</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F151" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5905,25 +5833,25 @@
         <v>9999999913</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="7" t="s">
-        <v>56</v>
+      <c r="F152" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5931,25 +5859,25 @@
         <v>9999999913</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F153" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5957,25 +5885,25 @@
         <v>9999999913</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F154" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5983,25 +5911,25 @@
         <v>9999999913</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F155" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6009,25 +5937,25 @@
         <v>9999999913</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F156" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6035,25 +5963,25 @@
         <v>9999999913</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F157" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6061,25 +5989,25 @@
         <v>9999999914</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>56</v>
+      <c r="F158" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6087,25 +6015,25 @@
         <v>9999999914</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6113,25 +6041,25 @@
         <v>9999999914</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6139,25 +6067,25 @@
         <v>9999999914</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F161" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6165,25 +6093,25 @@
         <v>9999999914</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6191,25 +6119,25 @@
         <v>9999999914</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F163" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6217,25 +6145,25 @@
         <v>9999999914</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>56</v>
+      <c r="F164" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6243,25 +6171,25 @@
         <v>9999999914</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F165" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6269,25 +6197,25 @@
         <v>9999999914</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F166" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6295,25 +6223,25 @@
         <v>9999999914</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F167" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6321,25 +6249,25 @@
         <v>9999999914</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F168" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6347,25 +6275,25 @@
         <v>9999999914</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F169" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6373,25 +6301,25 @@
         <v>9999999915</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F170" s="7" t="s">
-        <v>56</v>
+      <c r="F170" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6399,25 +6327,25 @@
         <v>9999999915</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F171" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6425,25 +6353,25 @@
         <v>9999999915</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F172" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6451,25 +6379,25 @@
         <v>9999999915</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F173" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6477,25 +6405,25 @@
         <v>9999999915</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F174" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6503,25 +6431,25 @@
         <v>9999999915</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6529,25 +6457,25 @@
         <v>9999999915</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F176" s="7" t="s">
-        <v>56</v>
+      <c r="F176" s="7">
+        <v>1111111129</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6555,25 +6483,25 @@
         <v>9999999915</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="F177" s="7">
+        <v>1111111130</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6581,25 +6509,25 @@
         <v>9999999915</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="F178" s="7">
+        <v>1111111131</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6607,25 +6535,25 @@
         <v>9999999915</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F179" s="7">
+        <v>1111111132</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6633,25 +6561,25 @@
         <v>9999999915</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F180" s="7">
+        <v>1111111133</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6659,25 +6587,25 @@
         <v>9999999915</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="F181" s="7">
+        <v>1111111134</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6685,25 +6613,25 @@
         <v>9999999916</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F182" s="7" t="s">
-        <v>74</v>
+      <c r="F182" s="7">
+        <v>1111111135</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6711,25 +6639,25 @@
         <v>9999999916</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1111111136</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6737,25 +6665,25 @@
         <v>9999999916</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F184" s="7">
+        <v>1111111137</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6763,25 +6691,25 @@
         <v>9999999916</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F185" s="7">
+        <v>1111111138</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6789,25 +6717,25 @@
         <v>9999999916</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1111111139</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6815,25 +6743,25 @@
         <v>9999999916</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F187" s="7">
+        <v>1111111140</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6841,25 +6769,25 @@
         <v>9999999916</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F188" s="7" t="s">
-        <v>74</v>
+      <c r="F188" s="7">
+        <v>1111111135</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6867,25 +6795,25 @@
         <v>9999999916</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F189" s="7">
+        <v>1111111136</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6893,25 +6821,25 @@
         <v>9999999916</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1111111137</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6919,25 +6847,25 @@
         <v>9999999916</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F191" s="7">
+        <v>1111111138</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6945,25 +6873,25 @@
         <v>9999999916</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1111111139</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6971,337 +6899,337 @@
         <v>9999999916</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1111111140</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F194" s="7" t="s">
-        <v>74</v>
+      <c r="F194" s="7">
+        <v>1111111135</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F195" s="7">
+        <v>1111111136</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1111111137</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F197" s="7">
+        <v>1111111138</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F198" s="7">
+        <v>1111111139</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F199" s="7">
+        <v>1111111140</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F200" s="7" t="s">
-        <v>74</v>
+      <c r="F200" s="7">
+        <v>1111111135</v>
       </c>
       <c r="G200" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F201" s="7">
+        <v>1111111136</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F202" s="7">
+        <v>1111111137</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F203" s="7">
+        <v>1111111138</v>
       </c>
       <c r="G203" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F204" s="7">
+        <v>1111111139</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="10">
-        <v>99999999917</v>
+        <v>9999999917</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F205" s="7">
+        <v>1111111140</v>
       </c>
       <c r="G205" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7309,25 +7237,25 @@
         <v>9999999918</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F206" s="7" t="s">
-        <v>74</v>
+      <c r="F206" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G206" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7335,25 +7263,25 @@
         <v>9999999918</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F207" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G207" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7361,25 +7289,25 @@
         <v>9999999918</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F208" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7387,25 +7315,25 @@
         <v>9999999918</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F209" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7413,25 +7341,25 @@
         <v>9999999918</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F210" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7439,25 +7367,25 @@
         <v>9999999918</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G211" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7465,25 +7393,25 @@
         <v>9999999918</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F212" s="7" t="s">
-        <v>74</v>
+      <c r="F212" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G212" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7491,25 +7419,25 @@
         <v>9999999918</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F213" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G213" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7517,25 +7445,25 @@
         <v>9999999918</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F214" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7543,25 +7471,25 @@
         <v>9999999918</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7569,25 +7497,25 @@
         <v>9999999918</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F216" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7595,25 +7523,25 @@
         <v>9999999918</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F217" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G217" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7621,25 +7549,25 @@
         <v>9999999919</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>74</v>
+      <c r="F218" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G218" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7647,25 +7575,25 @@
         <v>9999999919</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F219" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G219" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7673,25 +7601,25 @@
         <v>9999999919</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F220" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G220" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7699,25 +7627,25 @@
         <v>9999999919</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F221" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G221" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7725,25 +7653,25 @@
         <v>9999999919</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F222" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G222" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7751,25 +7679,25 @@
         <v>9999999919</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F223" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G223" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7777,25 +7705,25 @@
         <v>9999999919</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F224" s="7" t="s">
-        <v>74</v>
+      <c r="F224" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G224" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7803,25 +7731,25 @@
         <v>9999999919</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F225" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G225" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7829,25 +7757,25 @@
         <v>9999999919</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F226" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G226" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7855,25 +7783,25 @@
         <v>9999999919</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F227" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7881,25 +7809,25 @@
         <v>9999999919</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F228" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7907,25 +7835,25 @@
         <v>9999999919</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7933,25 +7861,25 @@
         <v>9999999920</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F230" s="7" t="s">
-        <v>74</v>
+      <c r="F230" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7959,25 +7887,25 @@
         <v>9999999920</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F231" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7985,25 +7913,25 @@
         <v>9999999920</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F232" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8011,25 +7939,25 @@
         <v>9999999920</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F233" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G233" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8037,25 +7965,25 @@
         <v>9999999920</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F234" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8063,25 +7991,25 @@
         <v>9999999920</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F235" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8089,25 +8017,25 @@
         <v>9999999920</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F236" s="7" t="s">
-        <v>74</v>
+      <c r="F236" s="7">
+        <v>1111111142</v>
       </c>
       <c r="G236" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8115,25 +8043,25 @@
         <v>9999999920</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F237" s="7">
+        <v>1111111143</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8141,25 +8069,25 @@
         <v>9999999920</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1111111144</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8167,25 +8095,25 @@
         <v>9999999920</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="F239" s="7">
+        <v>1111111145</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8193,25 +8121,25 @@
         <v>9999999920</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1111111146</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8219,25 +8147,25 @@
         <v>9999999920</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="F241" s="7">
+        <v>1111111141</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:8">

--- a/public/template/template_import_krs.xlsx
+++ b/public/template/template_import_krs.xlsx
@@ -771,15 +771,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Rockwell"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Rockwell"/>
       <charset val="134"/>
     </font>
@@ -790,6 +789,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Rockwell"/>
       <charset val="134"/>
@@ -1644,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:L249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
